--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-27.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>League</t>
   </si>
@@ -211,9 +211,18 @@
     <t>IDMercado_Correct_Score</t>
   </si>
   <si>
+    <t>Italian Serie D</t>
+  </si>
+  <si>
+    <t>Croatian 2 HNL</t>
+  </si>
+  <si>
     <t>Uruguayan Primera Division</t>
   </si>
   <si>
+    <t>Spanish Segunda RFEF - Group 5</t>
+  </si>
+  <si>
     <t>Colombian Primera A</t>
   </si>
   <si>
@@ -223,6 +232,12 @@
     <t>2024-03-27</t>
   </si>
   <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>12:30:00</t>
+  </si>
+  <si>
     <t>16:00:00</t>
   </si>
   <si>
@@ -238,9 +253,18 @@
     <t>22:20:00</t>
   </si>
   <si>
+    <t>Orvietana Calcio</t>
+  </si>
+  <si>
+    <t>HNK Orijent 1919</t>
+  </si>
+  <si>
     <t>Progreso</t>
   </si>
   <si>
+    <t>Gimnastica Segoviana CF</t>
+  </si>
+  <si>
     <t>Atletico Bucaramanga</t>
   </si>
   <si>
@@ -253,9 +277,18 @@
     <t>Millonarios</t>
   </si>
   <si>
+    <t>Ghivizzano Borgo A Mozzano</t>
+  </si>
+  <si>
+    <t>Vukovar</t>
+  </si>
+  <si>
     <t>Rampla Juniors</t>
   </si>
   <si>
+    <t>Guadalajara</t>
+  </si>
+  <si>
     <t>Aguilas Doradas</t>
   </si>
   <si>
@@ -268,49 +301,49 @@
     <t>Santa Fe</t>
   </si>
   <si>
-    <t>33137879</t>
-  </si>
-  <si>
-    <t>33138400</t>
-  </si>
-  <si>
-    <t>33137013</t>
-  </si>
-  <si>
-    <t>33136282</t>
-  </si>
-  <si>
-    <t>33137273</t>
-  </si>
-  <si>
-    <t>1.226664224</t>
-  </si>
-  <si>
-    <t>1.226672388</t>
-  </si>
-  <si>
-    <t>1.226645160</t>
-  </si>
-  <si>
-    <t>1.226632369</t>
-  </si>
-  <si>
-    <t>1.226647302</t>
-  </si>
-  <si>
-    <t>1.226664269</t>
-  </si>
-  <si>
-    <t>1.226672433</t>
-  </si>
-  <si>
-    <t>1.226645205</t>
-  </si>
-  <si>
-    <t>1.226632379</t>
-  </si>
-  <si>
-    <t>1.226647347</t>
+    <t>33140948</t>
+  </si>
+  <si>
+    <t>33140312</t>
+  </si>
+  <si>
+    <t>33140167</t>
+  </si>
+  <si>
+    <t>1.226708453</t>
+  </si>
+  <si>
+    <t>1.226698516</t>
+  </si>
+  <si>
+    <t>1.226698335</t>
+  </si>
+  <si>
+    <t>1.226708498</t>
+  </si>
+  <si>
+    <t>1.226698561</t>
+  </si>
+  <si>
+    <t>1.226698380</t>
+  </si>
+  <si>
+    <t>1.226708537</t>
+  </si>
+  <si>
+    <t>1.226698600</t>
+  </si>
+  <si>
+    <t>1.226698419</t>
+  </si>
+  <si>
+    <t>1.226708462</t>
+  </si>
+  <si>
+    <t>1.226698525</t>
+  </si>
+  <si>
+    <t>1.226698344</t>
   </si>
 </sst>
 </file>
@@ -668,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM6"/>
+  <dimension ref="A1:BM9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -876,31 +909,31 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F2">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="G2">
         <v>480</v>
       </c>
       <c r="H2">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="I2">
         <v>870</v>
       </c>
       <c r="J2">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="K2">
         <v>950</v>
@@ -909,163 +942,163 @@
         <v>1.2</v>
       </c>
       <c r="M2">
-        <v>990</v>
+        <v>110</v>
       </c>
       <c r="N2">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="O2">
         <v>6.6</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="BG2">
-        <v>6607289</v>
+        <v>48845237</v>
       </c>
       <c r="BH2">
-        <v>5347408</v>
+        <v>67517649</v>
       </c>
       <c r="BI2">
         <v>58805</v>
       </c>
       <c r="BJ2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="BK2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1073,387 +1106,387 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F3">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="G3">
-        <v>3.35</v>
+        <v>480</v>
       </c>
       <c r="H3">
-        <v>2.86</v>
+        <v>1.35</v>
       </c>
       <c r="I3">
-        <v>14.5</v>
+        <v>870</v>
       </c>
       <c r="J3">
-        <v>2.24</v>
+        <v>1.37</v>
       </c>
       <c r="K3">
-        <v>19.5</v>
+        <v>950</v>
       </c>
       <c r="L3">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="M3">
-        <v>1.81</v>
+        <v>30</v>
       </c>
       <c r="N3">
-        <v>2.24</v>
+        <v>1.05</v>
       </c>
       <c r="O3">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="BG3">
-        <v>7227021</v>
+        <v>20463020</v>
       </c>
       <c r="BH3">
-        <v>8717595</v>
+        <v>11791684</v>
       </c>
       <c r="BI3">
         <v>58805</v>
       </c>
       <c r="BJ3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="BK3" t="s">
-        <v>95</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:65">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F4">
-        <v>1.49</v>
+        <v>1.72</v>
       </c>
       <c r="G4">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="H4">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K4">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="L4">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="M4">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="N4">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="O4">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>86</v>
+        <v>1000</v>
+      </c>
+      <c r="BF4">
+        <v>33137879</v>
       </c>
       <c r="BG4">
-        <v>10632891</v>
+        <v>6607289</v>
       </c>
       <c r="BH4">
-        <v>7055314</v>
+        <v>5347408</v>
       </c>
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>96</v>
+      <c r="BJ4">
+        <v>1.226664224</v>
+      </c>
+      <c r="BK4">
+        <v>1.226664269</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -1464,395 +1497,986 @@
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F5">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G5">
-        <v>2.5</v>
+        <v>480</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I5">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="J5">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="K5">
-        <v>3.85</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M5">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="N5">
+        <v>1.84</v>
+      </c>
+      <c r="O5">
+        <v>3.4</v>
+      </c>
+      <c r="P5">
+        <v>1.12</v>
+      </c>
+      <c r="Q5">
+        <v>1000</v>
+      </c>
+      <c r="R5">
+        <v>1.12</v>
+      </c>
+      <c r="S5">
+        <v>1000</v>
+      </c>
+      <c r="T5">
+        <v>1.48</v>
+      </c>
+      <c r="U5">
+        <v>1000</v>
+      </c>
+      <c r="V5">
+        <v>2.44</v>
+      </c>
+      <c r="W5">
+        <v>1000</v>
+      </c>
+      <c r="X5">
+        <v>2.34</v>
+      </c>
+      <c r="Y5">
+        <v>1000</v>
+      </c>
+      <c r="Z5">
+        <v>4.3</v>
+      </c>
+      <c r="AA5">
+        <v>1000</v>
+      </c>
+      <c r="AB5">
+        <v>2.9</v>
+      </c>
+      <c r="AC5">
+        <v>1000</v>
+      </c>
+      <c r="AD5">
         <v>2.68</v>
       </c>
-      <c r="O5">
+      <c r="AE5">
+        <v>1000</v>
+      </c>
+      <c r="AF5">
+        <v>4.8</v>
+      </c>
+      <c r="AG5">
+        <v>1000</v>
+      </c>
+      <c r="AH5">
+        <v>4.2</v>
+      </c>
+      <c r="AI5">
+        <v>1000</v>
+      </c>
+      <c r="AJ5">
         <v>3.35</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="BG5">
-        <v>194513</v>
+        <v>9425476</v>
       </c>
       <c r="BH5">
-        <v>194516</v>
+        <v>230909</v>
       </c>
       <c r="BI5">
         <v>58805</v>
       </c>
       <c r="BJ5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="BK5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:65">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F6">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="G6">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H6">
         <v>4.1</v>
       </c>
       <c r="I6">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L6">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="M6">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="N6">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="O6">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>88</v>
+        <v>1000</v>
+      </c>
+      <c r="BF6">
+        <v>33138400</v>
       </c>
       <c r="BG6">
-        <v>900849</v>
+        <v>7227021</v>
       </c>
       <c r="BH6">
-        <v>4908158</v>
+        <v>8717595</v>
       </c>
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>98</v>
+      <c r="BJ6">
+        <v>1.226672388</v>
+      </c>
+      <c r="BK6">
+        <v>1.226672433</v>
       </c>
       <c r="BL6">
         <v>0</v>
       </c>
       <c r="BM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7">
+        <v>1.57</v>
+      </c>
+      <c r="G7">
+        <v>1.64</v>
+      </c>
+      <c r="H7">
+        <v>6.6</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>3.8</v>
+      </c>
+      <c r="K7">
+        <v>4.3</v>
+      </c>
+      <c r="L7">
+        <v>1.71</v>
+      </c>
+      <c r="M7">
+        <v>1.87</v>
+      </c>
+      <c r="N7">
+        <v>2.16</v>
+      </c>
+      <c r="O7">
+        <v>2.42</v>
+      </c>
+      <c r="P7">
+        <v>2.16</v>
+      </c>
+      <c r="Q7">
+        <v>2.54</v>
+      </c>
+      <c r="R7">
+        <v>1.65</v>
+      </c>
+      <c r="S7">
+        <v>1.87</v>
+      </c>
+      <c r="T7">
+        <v>8.6</v>
+      </c>
+      <c r="U7">
+        <v>14</v>
+      </c>
+      <c r="V7">
+        <v>16</v>
+      </c>
+      <c r="W7">
+        <v>24</v>
+      </c>
+      <c r="X7">
+        <v>4.1</v>
+      </c>
+      <c r="Y7">
+        <v>980</v>
+      </c>
+      <c r="Z7">
+        <v>4.3</v>
+      </c>
+      <c r="AA7">
+        <v>980</v>
+      </c>
+      <c r="AB7">
+        <v>5.6</v>
+      </c>
+      <c r="AC7">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD7">
+        <v>7.6</v>
+      </c>
+      <c r="AE7">
+        <v>11.5</v>
+      </c>
+      <c r="AF7">
+        <v>4.1</v>
+      </c>
+      <c r="AG7">
+        <v>38</v>
+      </c>
+      <c r="AH7">
+        <v>4.4</v>
+      </c>
+      <c r="AI7">
+        <v>980</v>
+      </c>
+      <c r="AJ7">
+        <v>6.8</v>
+      </c>
+      <c r="AK7">
+        <v>10</v>
+      </c>
+      <c r="AL7">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM7">
+        <v>13</v>
+      </c>
+      <c r="AN7">
+        <v>21</v>
+      </c>
+      <c r="AO7">
+        <v>36</v>
+      </c>
+      <c r="AP7">
+        <v>4.4</v>
+      </c>
+      <c r="AQ7">
+        <v>980</v>
+      </c>
+      <c r="AR7">
+        <v>11</v>
+      </c>
+      <c r="AS7">
+        <v>18</v>
+      </c>
+      <c r="AT7">
+        <v>15.5</v>
+      </c>
+      <c r="AU7">
+        <v>24</v>
+      </c>
+      <c r="AV7">
+        <v>4</v>
+      </c>
+      <c r="AW7">
+        <v>980</v>
+      </c>
+      <c r="AX7">
+        <v>4.5</v>
+      </c>
+      <c r="AY7">
+        <v>980</v>
+      </c>
+      <c r="AZ7">
+        <v>3.3</v>
+      </c>
+      <c r="BA7">
+        <v>14.5</v>
+      </c>
+      <c r="BB7">
+        <v>4.2</v>
+      </c>
+      <c r="BC7">
+        <v>980</v>
+      </c>
+      <c r="BD7">
+        <v>4.3</v>
+      </c>
+      <c r="BE7">
+        <v>1000</v>
+      </c>
+      <c r="BF7">
+        <v>33137013</v>
+      </c>
+      <c r="BG7">
+        <v>10632891</v>
+      </c>
+      <c r="BH7">
+        <v>7055314</v>
+      </c>
+      <c r="BI7">
+        <v>58805</v>
+      </c>
+      <c r="BJ7">
+        <v>1.22664516</v>
+      </c>
+      <c r="BK7">
+        <v>1.226645205</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8">
+        <v>2.04</v>
+      </c>
+      <c r="G8">
+        <v>2.18</v>
+      </c>
+      <c r="H8">
+        <v>4.4</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>2.92</v>
+      </c>
+      <c r="K8">
+        <v>3.25</v>
+      </c>
+      <c r="L8">
+        <v>1.45</v>
+      </c>
+      <c r="M8">
+        <v>1.59</v>
+      </c>
+      <c r="N8">
+        <v>2.7</v>
+      </c>
+      <c r="O8">
+        <v>3.25</v>
+      </c>
+      <c r="P8">
+        <v>2.2</v>
+      </c>
+      <c r="Q8">
+        <v>2.64</v>
+      </c>
+      <c r="R8">
+        <v>1.61</v>
+      </c>
+      <c r="S8">
+        <v>1.84</v>
+      </c>
+      <c r="T8">
+        <v>6.4</v>
+      </c>
+      <c r="U8">
+        <v>8.6</v>
+      </c>
+      <c r="V8">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="W8">
+        <v>13</v>
+      </c>
+      <c r="X8">
+        <v>6</v>
+      </c>
+      <c r="Y8">
+        <v>38</v>
+      </c>
+      <c r="Z8">
+        <v>6.4</v>
+      </c>
+      <c r="AA8">
+        <v>150</v>
+      </c>
+      <c r="AB8">
+        <v>5.5</v>
+      </c>
+      <c r="AC8">
+        <v>7.2</v>
+      </c>
+      <c r="AD8">
+        <v>6.2</v>
+      </c>
+      <c r="AE8">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF8">
+        <v>17.5</v>
+      </c>
+      <c r="AG8">
+        <v>24</v>
+      </c>
+      <c r="AH8">
+        <v>6.4</v>
+      </c>
+      <c r="AI8">
+        <v>110</v>
+      </c>
+      <c r="AJ8">
+        <v>9.4</v>
+      </c>
+      <c r="AK8">
+        <v>12</v>
+      </c>
+      <c r="AL8">
+        <v>10</v>
+      </c>
+      <c r="AM8">
+        <v>13</v>
+      </c>
+      <c r="AN8">
+        <v>6.4</v>
+      </c>
+      <c r="AO8">
+        <v>32</v>
+      </c>
+      <c r="AP8">
+        <v>6.4</v>
+      </c>
+      <c r="AQ8">
+        <v>140</v>
+      </c>
+      <c r="AR8">
+        <v>6.4</v>
+      </c>
+      <c r="AS8">
+        <v>29</v>
+      </c>
+      <c r="AT8">
+        <v>5.9</v>
+      </c>
+      <c r="AU8">
+        <v>34</v>
+      </c>
+      <c r="AV8">
+        <v>6.2</v>
+      </c>
+      <c r="AW8">
+        <v>75</v>
+      </c>
+      <c r="AX8">
+        <v>6.6</v>
+      </c>
+      <c r="AY8">
+        <v>280</v>
+      </c>
+      <c r="AZ8">
+        <v>5.6</v>
+      </c>
+      <c r="BA8">
+        <v>32</v>
+      </c>
+      <c r="BB8">
+        <v>6.4</v>
+      </c>
+      <c r="BC8">
+        <v>170</v>
+      </c>
+      <c r="BD8">
+        <v>6.8</v>
+      </c>
+      <c r="BE8">
+        <v>1000</v>
+      </c>
+      <c r="BF8">
+        <v>33136282</v>
+      </c>
+      <c r="BG8">
+        <v>194513</v>
+      </c>
+      <c r="BH8">
+        <v>194516</v>
+      </c>
+      <c r="BI8">
+        <v>58805</v>
+      </c>
+      <c r="BJ8">
+        <v>1.226632369</v>
+      </c>
+      <c r="BK8">
+        <v>1.226632379</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9">
+        <v>2.38</v>
+      </c>
+      <c r="G9">
+        <v>2.56</v>
+      </c>
+      <c r="H9">
+        <v>3.45</v>
+      </c>
+      <c r="I9">
+        <v>3.85</v>
+      </c>
+      <c r="J9">
+        <v>2.96</v>
+      </c>
+      <c r="K9">
+        <v>3.25</v>
+      </c>
+      <c r="L9">
+        <v>1.53</v>
+      </c>
+      <c r="M9">
+        <v>1.66</v>
+      </c>
+      <c r="N9">
+        <v>2.52</v>
+      </c>
+      <c r="O9">
+        <v>2.88</v>
+      </c>
+      <c r="P9">
+        <v>2.1</v>
+      </c>
+      <c r="Q9">
+        <v>2.26</v>
+      </c>
+      <c r="R9">
+        <v>1.8</v>
+      </c>
+      <c r="S9">
+        <v>1.91</v>
+      </c>
+      <c r="T9">
+        <v>6.4</v>
+      </c>
+      <c r="U9">
+        <v>10.5</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>12.5</v>
+      </c>
+      <c r="X9">
+        <v>4.5</v>
+      </c>
+      <c r="Y9">
+        <v>29</v>
+      </c>
+      <c r="Z9">
+        <v>5.1</v>
+      </c>
+      <c r="AA9">
+        <v>100</v>
+      </c>
+      <c r="AB9">
+        <v>7</v>
+      </c>
+      <c r="AC9">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD9">
+        <v>6.4</v>
+      </c>
+      <c r="AE9">
+        <v>7.2</v>
+      </c>
+      <c r="AF9">
+        <v>4.3</v>
+      </c>
+      <c r="AG9">
+        <v>19.5</v>
+      </c>
+      <c r="AH9">
+        <v>5</v>
+      </c>
+      <c r="AI9">
+        <v>70</v>
+      </c>
+      <c r="AJ9">
+        <v>4.3</v>
+      </c>
+      <c r="AK9">
+        <v>16.5</v>
+      </c>
+      <c r="AL9">
+        <v>9.4</v>
+      </c>
+      <c r="AM9">
+        <v>15.5</v>
+      </c>
+      <c r="AN9">
+        <v>16.5</v>
+      </c>
+      <c r="AO9">
+        <v>29</v>
+      </c>
+      <c r="AP9">
+        <v>5.1</v>
+      </c>
+      <c r="AQ9">
+        <v>100</v>
+      </c>
+      <c r="AR9">
+        <v>5.2</v>
+      </c>
+      <c r="AS9">
+        <v>42</v>
+      </c>
+      <c r="AT9">
+        <v>5.2</v>
+      </c>
+      <c r="AU9">
+        <v>40</v>
+      </c>
+      <c r="AV9">
+        <v>5.1</v>
+      </c>
+      <c r="AW9">
+        <v>80</v>
+      </c>
+      <c r="AX9">
+        <v>5.3</v>
+      </c>
+      <c r="AY9">
+        <v>230</v>
+      </c>
+      <c r="AZ9">
+        <v>4.8</v>
+      </c>
+      <c r="BA9">
+        <v>40</v>
+      </c>
+      <c r="BB9">
+        <v>5.1</v>
+      </c>
+      <c r="BC9">
+        <v>95</v>
+      </c>
+      <c r="BD9">
+        <v>5.4</v>
+      </c>
+      <c r="BE9">
+        <v>1000</v>
+      </c>
+      <c r="BF9">
+        <v>33137273</v>
+      </c>
+      <c r="BG9">
+        <v>900849</v>
+      </c>
+      <c r="BH9">
+        <v>4908158</v>
+      </c>
+      <c r="BI9">
+        <v>58805</v>
+      </c>
+      <c r="BJ9">
+        <v>1.226647302</v>
+      </c>
+      <c r="BK9">
+        <v>1.226647347</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
         <v>0</v>
       </c>
     </row>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-27.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
   <si>
     <t>League</t>
   </si>
@@ -299,51 +299,6 @@
   </si>
   <si>
     <t>Santa Fe</t>
-  </si>
-  <si>
-    <t>33140948</t>
-  </si>
-  <si>
-    <t>33140312</t>
-  </si>
-  <si>
-    <t>33140167</t>
-  </si>
-  <si>
-    <t>1.226708453</t>
-  </si>
-  <si>
-    <t>1.226698516</t>
-  </si>
-  <si>
-    <t>1.226698335</t>
-  </si>
-  <si>
-    <t>1.226708498</t>
-  </si>
-  <si>
-    <t>1.226698561</t>
-  </si>
-  <si>
-    <t>1.226698380</t>
-  </si>
-  <si>
-    <t>1.226708537</t>
-  </si>
-  <si>
-    <t>1.226698600</t>
-  </si>
-  <si>
-    <t>1.226698419</t>
-  </si>
-  <si>
-    <t>1.226708462</t>
-  </si>
-  <si>
-    <t>1.226698525</t>
-  </si>
-  <si>
-    <t>1.226698344</t>
   </si>
 </sst>
 </file>
@@ -924,19 +879,19 @@
         <v>1.01</v>
       </c>
       <c r="G2">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="H2">
         <v>1.01</v>
       </c>
       <c r="I2">
-        <v>870</v>
+        <v>990</v>
       </c>
       <c r="J2">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K2">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L2">
         <v>1.2</v>
@@ -963,97 +918,97 @@
         <v>1000</v>
       </c>
       <c r="T2">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="U2">
         <v>1000</v>
       </c>
       <c r="V2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W2">
         <v>1000</v>
       </c>
       <c r="X2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="Y2">
         <v>1000</v>
       </c>
       <c r="Z2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AA2">
         <v>1000</v>
       </c>
       <c r="AB2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AC2">
         <v>1000</v>
       </c>
       <c r="AD2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AE2">
         <v>1000</v>
       </c>
       <c r="AF2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AG2">
         <v>1000</v>
       </c>
       <c r="AH2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AI2">
         <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>1.03</v>
+        <v>2.78</v>
       </c>
       <c r="AK2">
         <v>1000</v>
       </c>
       <c r="AL2">
-        <v>1.03</v>
+        <v>3.8</v>
       </c>
       <c r="AM2">
         <v>1000</v>
       </c>
       <c r="AN2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AO2">
         <v>1000</v>
       </c>
       <c r="AP2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AQ2">
         <v>1000</v>
       </c>
       <c r="AR2">
-        <v>1.03</v>
+        <v>3.2</v>
       </c>
       <c r="AS2">
         <v>1000</v>
       </c>
       <c r="AT2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU2">
         <v>1000</v>
       </c>
       <c r="AV2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AW2">
         <v>1000</v>
       </c>
       <c r="AX2">
-        <v>1.03</v>
+        <v>17</v>
       </c>
       <c r="AY2">
         <v>1000</v>
@@ -1071,13 +1026,13 @@
         <v>1000</v>
       </c>
       <c r="BD2">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2" t="s">
-        <v>95</v>
+      <c r="BF2">
+        <v>33140948</v>
       </c>
       <c r="BG2">
         <v>48845237</v>
@@ -1088,17 +1043,17 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>107</v>
+      <c r="BJ2">
+        <v>1.226708453</v>
+      </c>
+      <c r="BK2">
+        <v>1.226708498</v>
+      </c>
+      <c r="BL2">
+        <v>1.226708537</v>
+      </c>
+      <c r="BM2">
+        <v>1.226708462</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1118,22 +1073,22 @@
         <v>88</v>
       </c>
       <c r="F3">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="G3">
-        <v>480</v>
+        <v>990</v>
       </c>
       <c r="H3">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="I3">
-        <v>870</v>
+        <v>1000</v>
       </c>
       <c r="J3">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="K3">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L3">
         <v>1.2</v>
@@ -1160,7 +1115,7 @@
         <v>1000</v>
       </c>
       <c r="T3">
-        <v>1.49</v>
+        <v>1.1</v>
       </c>
       <c r="U3">
         <v>980</v>
@@ -1262,7 +1217,7 @@
         <v>1000</v>
       </c>
       <c r="BB3">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="BC3">
         <v>1000</v>
@@ -1273,8 +1228,8 @@
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3" t="s">
-        <v>96</v>
+      <c r="BF3">
+        <v>33140312</v>
       </c>
       <c r="BG3">
         <v>20463020</v>
@@ -1285,17 +1240,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>108</v>
+      <c r="BJ3">
+        <v>1.226698516</v>
+      </c>
+      <c r="BK3">
+        <v>1.226698561</v>
+      </c>
+      <c r="BL3">
+        <v>1.2266986</v>
+      </c>
+      <c r="BM3">
+        <v>1.226698525</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1321,31 +1276,31 @@
         <v>1.83</v>
       </c>
       <c r="H4">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="J4">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K4">
         <v>4.3</v>
       </c>
       <c r="L4">
+        <v>1.92</v>
+      </c>
+      <c r="M4">
+        <v>2.16</v>
+      </c>
+      <c r="N4">
         <v>1.87</v>
       </c>
-      <c r="M4">
-        <v>2.2</v>
-      </c>
-      <c r="N4">
-        <v>1.84</v>
-      </c>
       <c r="O4">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="P4">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1369,13 +1324,13 @@
         <v>980</v>
       </c>
       <c r="X4">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y4">
         <v>980</v>
       </c>
       <c r="Z4">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AA4">
         <v>1000</v>
@@ -1399,10 +1354,10 @@
         <v>980</v>
       </c>
       <c r="AH4">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="AI4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ4">
         <v>8.6</v>
@@ -1423,10 +1378,10 @@
         <v>980</v>
       </c>
       <c r="AP4">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AQ4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR4">
         <v>15</v>
@@ -1441,31 +1396,31 @@
         <v>980</v>
       </c>
       <c r="AV4">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AW4">
         <v>980</v>
       </c>
       <c r="AX4">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="AY4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ4">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="BA4">
         <v>980</v>
       </c>
       <c r="BB4">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="BC4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD4">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -1512,139 +1467,139 @@
         <v>90</v>
       </c>
       <c r="F5">
+        <v>2.26</v>
+      </c>
+      <c r="G5">
+        <v>2.58</v>
+      </c>
+      <c r="H5">
+        <v>3.35</v>
+      </c>
+      <c r="I5">
+        <v>3.95</v>
+      </c>
+      <c r="J5">
+        <v>2.8</v>
+      </c>
+      <c r="K5">
+        <v>3.65</v>
+      </c>
+      <c r="L5">
+        <v>1.58</v>
+      </c>
+      <c r="M5">
+        <v>1.8</v>
+      </c>
+      <c r="N5">
+        <v>1.88</v>
+      </c>
+      <c r="O5">
+        <v>3.7</v>
+      </c>
+      <c r="P5">
+        <v>1.92</v>
+      </c>
+      <c r="Q5">
+        <v>2.28</v>
+      </c>
+      <c r="R5">
+        <v>1.79</v>
+      </c>
+      <c r="S5">
         <v>2.08</v>
       </c>
-      <c r="G5">
-        <v>480</v>
-      </c>
-      <c r="H5">
-        <v>3.3</v>
-      </c>
-      <c r="I5">
+      <c r="T5">
+        <v>1.17</v>
+      </c>
+      <c r="U5">
+        <v>980</v>
+      </c>
+      <c r="V5">
+        <v>1.07</v>
+      </c>
+      <c r="W5">
+        <v>980</v>
+      </c>
+      <c r="X5">
+        <v>2.96</v>
+      </c>
+      <c r="Y5">
+        <v>980</v>
+      </c>
+      <c r="Z5">
+        <v>3.8</v>
+      </c>
+      <c r="AA5">
+        <v>980</v>
+      </c>
+      <c r="AB5">
+        <v>2.98</v>
+      </c>
+      <c r="AC5">
+        <v>980</v>
+      </c>
+      <c r="AD5">
+        <v>3.9</v>
+      </c>
+      <c r="AE5">
+        <v>980</v>
+      </c>
+      <c r="AF5">
+        <v>4.3</v>
+      </c>
+      <c r="AG5">
+        <v>1000</v>
+      </c>
+      <c r="AH5">
+        <v>6.2</v>
+      </c>
+      <c r="AI5">
+        <v>1000</v>
+      </c>
+      <c r="AJ5">
+        <v>2.2</v>
+      </c>
+      <c r="AK5">
+        <v>980</v>
+      </c>
+      <c r="AL5">
         <v>4.6</v>
       </c>
-      <c r="J5">
-        <v>2.76</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-      <c r="L5">
-        <v>1.42</v>
-      </c>
-      <c r="M5">
-        <v>2.2</v>
-      </c>
-      <c r="N5">
-        <v>1.84</v>
-      </c>
-      <c r="O5">
-        <v>3.4</v>
-      </c>
-      <c r="P5">
-        <v>1.12</v>
-      </c>
-      <c r="Q5">
-        <v>1000</v>
-      </c>
-      <c r="R5">
-        <v>1.12</v>
-      </c>
-      <c r="S5">
-        <v>1000</v>
-      </c>
-      <c r="T5">
-        <v>1.48</v>
-      </c>
-      <c r="U5">
-        <v>1000</v>
-      </c>
-      <c r="V5">
-        <v>2.44</v>
-      </c>
-      <c r="W5">
-        <v>1000</v>
-      </c>
-      <c r="X5">
-        <v>2.34</v>
-      </c>
-      <c r="Y5">
-        <v>1000</v>
-      </c>
-      <c r="Z5">
-        <v>4.3</v>
-      </c>
-      <c r="AA5">
-        <v>1000</v>
-      </c>
-      <c r="AB5">
-        <v>2.9</v>
-      </c>
-      <c r="AC5">
-        <v>1000</v>
-      </c>
-      <c r="AD5">
-        <v>2.68</v>
-      </c>
-      <c r="AE5">
-        <v>1000</v>
-      </c>
-      <c r="AF5">
-        <v>4.8</v>
-      </c>
-      <c r="AG5">
-        <v>1000</v>
-      </c>
-      <c r="AH5">
-        <v>4.2</v>
-      </c>
-      <c r="AI5">
-        <v>1000</v>
-      </c>
-      <c r="AJ5">
-        <v>3.35</v>
-      </c>
-      <c r="AK5">
-        <v>1000</v>
-      </c>
-      <c r="AL5">
-        <v>2.96</v>
-      </c>
       <c r="AM5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN5">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="AO5">
         <v>1000</v>
       </c>
       <c r="AP5">
-        <v>14</v>
+        <v>6.6</v>
       </c>
       <c r="AQ5">
         <v>1000</v>
       </c>
       <c r="AR5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AS5">
         <v>1000</v>
       </c>
       <c r="AT5">
-        <v>4.9</v>
+        <v>8.4</v>
       </c>
       <c r="AU5">
         <v>1000</v>
       </c>
       <c r="AV5">
-        <v>8.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="AW5">
         <v>1000</v>
       </c>
       <c r="AX5">
-        <v>19.5</v>
+        <v>8</v>
       </c>
       <c r="AY5">
         <v>1000</v>
@@ -1662,13 +1617,13 @@
         <v>1000</v>
       </c>
       <c r="BD5">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="BE5">
         <v>1000</v>
       </c>
-      <c r="BF5" t="s">
-        <v>97</v>
+      <c r="BF5">
+        <v>33140167</v>
       </c>
       <c r="BG5">
         <v>9425476</v>
@@ -1679,17 +1634,17 @@
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>106</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>109</v>
+      <c r="BJ5">
+        <v>1.226698335</v>
+      </c>
+      <c r="BK5">
+        <v>1.22669838</v>
+      </c>
+      <c r="BL5">
+        <v>1.226698419</v>
+      </c>
+      <c r="BM5">
+        <v>1.226698344</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -1712,49 +1667,49 @@
         <v>2.14</v>
       </c>
       <c r="G6">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H6">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K6">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L6">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M6">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="N6">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="O6">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="P6">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q6">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="R6">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="U6">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="V6">
         <v>9.199999999999999</v>
@@ -1763,37 +1718,37 @@
         <v>12.5</v>
       </c>
       <c r="X6">
-        <v>6.4</v>
+        <v>21</v>
       </c>
       <c r="Y6">
         <v>36</v>
       </c>
       <c r="Z6">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA6">
         <v>980</v>
       </c>
       <c r="AB6">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AC6">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD6">
         <v>6.4</v>
       </c>
       <c r="AE6">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF6">
         <v>15.5</v>
       </c>
       <c r="AG6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH6">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="AI6">
         <v>980</v>
@@ -1808,58 +1763,58 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AM6">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AN6">
-        <v>6.2</v>
+        <v>19</v>
       </c>
       <c r="AO6">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AP6">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="AQ6">
         <v>980</v>
       </c>
       <c r="AR6">
-        <v>6.4</v>
+        <v>21</v>
       </c>
       <c r="AS6">
         <v>36</v>
       </c>
       <c r="AT6">
-        <v>6.4</v>
+        <v>22</v>
       </c>
       <c r="AU6">
         <v>980</v>
       </c>
       <c r="AV6">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="AW6">
         <v>980</v>
       </c>
       <c r="AX6">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="AY6">
         <v>980</v>
       </c>
       <c r="AZ6">
+        <v>5</v>
+      </c>
+      <c r="BA6">
+        <v>36</v>
+      </c>
+      <c r="BB6">
+        <v>5.6</v>
+      </c>
+      <c r="BC6">
+        <v>980</v>
+      </c>
+      <c r="BD6">
         <v>5.8</v>
-      </c>
-      <c r="BA6">
-        <v>980</v>
-      </c>
-      <c r="BB6">
-        <v>6.4</v>
-      </c>
-      <c r="BC6">
-        <v>980</v>
-      </c>
-      <c r="BD6">
-        <v>6.8</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -1906,37 +1861,37 @@
         <v>92</v>
       </c>
       <c r="F7">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="G7">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H7">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="J7">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K7">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L7">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="M7">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="N7">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="O7">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="P7">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="Q7">
         <v>2.54</v>
@@ -1945,19 +1900,19 @@
         <v>1.65</v>
       </c>
       <c r="S7">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="T7">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U7">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V7">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="W7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="X7">
         <v>4.1</v>
@@ -1966,7 +1921,7 @@
         <v>980</v>
       </c>
       <c r="Z7">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AA7">
         <v>980</v>
@@ -1978,40 +1933,40 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD7">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AE7">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF7">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AG7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH7">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AI7">
         <v>980</v>
       </c>
       <c r="AJ7">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AK7">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AL7">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AM7">
         <v>13</v>
       </c>
       <c r="AN7">
-        <v>21</v>
+        <v>4.1</v>
       </c>
       <c r="AO7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AP7">
         <v>4.4</v>
@@ -2020,19 +1975,19 @@
         <v>980</v>
       </c>
       <c r="AR7">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AS7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT7">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AU7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV7">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AW7">
         <v>980</v>
@@ -2044,10 +1999,10 @@
         <v>980</v>
       </c>
       <c r="AZ7">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="BA7">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="BB7">
         <v>4.2</v>
@@ -2103,46 +2058,46 @@
         <v>93</v>
       </c>
       <c r="F8">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G8">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H8">
         <v>4.4</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J8">
         <v>2.92</v>
       </c>
       <c r="K8">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L8">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M8">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="N8">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="O8">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="P8">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q8">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="R8">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S8">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="T8">
         <v>6.4</v>
@@ -2160,13 +2115,13 @@
         <v>6</v>
       </c>
       <c r="Y8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z8">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AA8">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AB8">
         <v>5.5</v>
@@ -2184,13 +2139,13 @@
         <v>17.5</v>
       </c>
       <c r="AG8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH8">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AI8">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AJ8">
         <v>9.4</v>
@@ -2208,52 +2163,52 @@
         <v>6.4</v>
       </c>
       <c r="AO8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP8">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AQ8">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AR8">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AS8">
         <v>29</v>
       </c>
       <c r="AT8">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AU8">
         <v>34</v>
       </c>
       <c r="AV8">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AW8">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AX8">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AY8">
-        <v>280</v>
+        <v>980</v>
       </c>
       <c r="AZ8">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="BA8">
         <v>32</v>
       </c>
       <c r="BB8">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="BC8">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="BD8">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="BE8">
         <v>1000</v>
@@ -2300,34 +2255,34 @@
         <v>94</v>
       </c>
       <c r="F9">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G9">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H9">
         <v>3.45</v>
       </c>
       <c r="I9">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J9">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K9">
         <v>3.25</v>
       </c>
       <c r="L9">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M9">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="N9">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="O9">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="P9">
         <v>2.1</v>
@@ -2339,7 +2294,7 @@
         <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
         <v>6.4</v>
@@ -2354,7 +2309,7 @@
         <v>12.5</v>
       </c>
       <c r="X9">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y9">
         <v>29</v>
@@ -2363,7 +2318,7 @@
         <v>5.1</v>
       </c>
       <c r="AA9">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AB9">
         <v>7</v>
@@ -2378,19 +2333,19 @@
         <v>7.2</v>
       </c>
       <c r="AF9">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AG9">
         <v>19.5</v>
       </c>
       <c r="AH9">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AI9">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AJ9">
-        <v>4.3</v>
+        <v>12</v>
       </c>
       <c r="AK9">
         <v>16.5</v>
@@ -2402,7 +2357,7 @@
         <v>15.5</v>
       </c>
       <c r="AN9">
-        <v>16.5</v>
+        <v>4.6</v>
       </c>
       <c r="AO9">
         <v>29</v>
@@ -2411,43 +2366,43 @@
         <v>5.1</v>
       </c>
       <c r="AQ9">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AR9">
         <v>5.2</v>
       </c>
       <c r="AS9">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AT9">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="AU9">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AV9">
         <v>5.1</v>
       </c>
       <c r="AW9">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AX9">
         <v>5.3</v>
       </c>
       <c r="AY9">
-        <v>230</v>
+        <v>980</v>
       </c>
       <c r="AZ9">
         <v>4.8</v>
       </c>
       <c r="BA9">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="BB9">
         <v>5.1</v>
       </c>
       <c r="BC9">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="BD9">
         <v>5.4</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-27.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-27.xlsx
@@ -876,34 +876,34 @@
         <v>87</v>
       </c>
       <c r="F2">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="G2">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H2">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="I2">
-        <v>990</v>
+        <v>870</v>
       </c>
       <c r="J2">
-        <v>1.23</v>
+        <v>3.25</v>
       </c>
       <c r="K2">
-        <v>980</v>
+        <v>5.5</v>
       </c>
       <c r="L2">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="M2">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="N2">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="O2">
-        <v>6.6</v>
+        <v>2.54</v>
       </c>
       <c r="P2">
         <v>1.12</v>
@@ -918,7 +918,7 @@
         <v>1000</v>
       </c>
       <c r="T2">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="U2">
         <v>1000</v>
@@ -966,13 +966,13 @@
         <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="AK2">
         <v>1000</v>
       </c>
       <c r="AL2">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="AM2">
         <v>1000</v>
@@ -990,7 +990,7 @@
         <v>1000</v>
       </c>
       <c r="AR2">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="AS2">
         <v>1000</v>
@@ -1008,7 +1008,7 @@
         <v>1000</v>
       </c>
       <c r="AX2">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="AY2">
         <v>1000</v>
@@ -1073,25 +1073,25 @@
         <v>88</v>
       </c>
       <c r="F3">
-        <v>1.52</v>
+        <v>2.58</v>
       </c>
       <c r="G3">
-        <v>990</v>
+        <v>7.6</v>
       </c>
       <c r="H3">
-        <v>1.45</v>
+        <v>1.82</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="J3">
-        <v>1.47</v>
+        <v>3.15</v>
       </c>
       <c r="K3">
-        <v>980</v>
+        <v>3.7</v>
       </c>
       <c r="L3">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M3">
         <v>30</v>
@@ -1100,7 +1100,7 @@
         <v>1.05</v>
       </c>
       <c r="O3">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="P3">
         <v>1.12</v>
@@ -1115,7 +1115,7 @@
         <v>1000</v>
       </c>
       <c r="T3">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="U3">
         <v>980</v>
@@ -1270,25 +1270,25 @@
         <v>89</v>
       </c>
       <c r="F4">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G4">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J4">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K4">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L4">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="M4">
         <v>2.16</v>
@@ -1297,130 +1297,130 @@
         <v>1.87</v>
       </c>
       <c r="O4">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P4">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
       </c>
       <c r="R4">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S4">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="T4">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="U4">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="V4">
+        <v>16</v>
+      </c>
+      <c r="W4">
+        <v>22</v>
+      </c>
+      <c r="X4">
+        <v>34</v>
+      </c>
+      <c r="Y4">
+        <v>44</v>
+      </c>
+      <c r="Z4">
+        <v>10</v>
+      </c>
+      <c r="AA4">
+        <v>160</v>
+      </c>
+      <c r="AB4">
+        <v>7.6</v>
+      </c>
+      <c r="AC4">
+        <v>9</v>
+      </c>
+      <c r="AD4">
+        <v>8</v>
+      </c>
+      <c r="AE4">
+        <v>9.6</v>
+      </c>
+      <c r="AF4">
+        <v>17</v>
+      </c>
+      <c r="AG4">
+        <v>22</v>
+      </c>
+      <c r="AH4">
+        <v>25</v>
+      </c>
+      <c r="AI4">
+        <v>85</v>
+      </c>
+      <c r="AJ4">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK4">
+        <v>19.5</v>
+      </c>
+      <c r="AL4">
+        <v>9</v>
+      </c>
+      <c r="AM4">
+        <v>10</v>
+      </c>
+      <c r="AN4">
+        <v>18</v>
+      </c>
+      <c r="AO4">
+        <v>980</v>
+      </c>
+      <c r="AP4">
+        <v>25</v>
+      </c>
+      <c r="AQ4">
+        <v>90</v>
+      </c>
+      <c r="AR4">
+        <v>7.2</v>
+      </c>
+      <c r="AS4">
+        <v>19.5</v>
+      </c>
+      <c r="AT4">
+        <v>15.5</v>
+      </c>
+      <c r="AU4">
+        <v>980</v>
+      </c>
+      <c r="AV4">
+        <v>30</v>
+      </c>
+      <c r="AW4">
+        <v>980</v>
+      </c>
+      <c r="AX4">
+        <v>10.5</v>
+      </c>
+      <c r="AY4">
+        <v>130</v>
+      </c>
+      <c r="AZ4">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BA4">
         <v>14.5</v>
       </c>
-      <c r="W4">
-        <v>980</v>
-      </c>
-      <c r="X4">
-        <v>6</v>
-      </c>
-      <c r="Y4">
-        <v>980</v>
-      </c>
-      <c r="Z4">
-        <v>2.4</v>
-      </c>
-      <c r="AA4">
-        <v>1000</v>
-      </c>
-      <c r="AB4">
-        <v>7.2</v>
-      </c>
-      <c r="AC4">
-        <v>980</v>
-      </c>
-      <c r="AD4">
-        <v>7.4</v>
-      </c>
-      <c r="AE4">
-        <v>980</v>
-      </c>
-      <c r="AF4">
-        <v>16.5</v>
-      </c>
-      <c r="AG4">
-        <v>980</v>
-      </c>
-      <c r="AH4">
-        <v>4.3</v>
-      </c>
-      <c r="AI4">
-        <v>980</v>
-      </c>
-      <c r="AJ4">
-        <v>8.6</v>
-      </c>
-      <c r="AK4">
-        <v>980</v>
-      </c>
-      <c r="AL4">
-        <v>8.4</v>
-      </c>
-      <c r="AM4">
-        <v>980</v>
-      </c>
-      <c r="AN4">
-        <v>17</v>
-      </c>
-      <c r="AO4">
-        <v>980</v>
-      </c>
-      <c r="AP4">
-        <v>4.8</v>
-      </c>
-      <c r="AQ4">
-        <v>980</v>
-      </c>
-      <c r="AR4">
-        <v>15</v>
-      </c>
-      <c r="AS4">
-        <v>980</v>
-      </c>
-      <c r="AT4">
-        <v>15</v>
-      </c>
-      <c r="AU4">
-        <v>980</v>
-      </c>
-      <c r="AV4">
-        <v>5.9</v>
-      </c>
-      <c r="AW4">
-        <v>980</v>
-      </c>
-      <c r="AX4">
-        <v>6.6</v>
-      </c>
-      <c r="AY4">
-        <v>980</v>
-      </c>
-      <c r="AZ4">
-        <v>3.65</v>
-      </c>
-      <c r="BA4">
-        <v>980</v>
-      </c>
       <c r="BB4">
-        <v>1.95</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC4">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="BD4">
-        <v>4.6</v>
+        <v>11</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -1494,7 +1494,7 @@
         <v>1.88</v>
       </c>
       <c r="O5">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
         <v>1.92</v>
@@ -1509,31 +1509,31 @@
         <v>2.08</v>
       </c>
       <c r="T5">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="U5">
         <v>980</v>
       </c>
       <c r="V5">
-        <v>1.07</v>
+        <v>2.64</v>
       </c>
       <c r="W5">
         <v>980</v>
       </c>
       <c r="X5">
-        <v>2.96</v>
+        <v>1.23</v>
       </c>
       <c r="Y5">
         <v>980</v>
       </c>
       <c r="Z5">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="AA5">
         <v>980</v>
       </c>
       <c r="AB5">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="AC5">
         <v>980</v>
@@ -1545,7 +1545,7 @@
         <v>980</v>
       </c>
       <c r="AF5">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="AG5">
         <v>1000</v>
@@ -1557,7 +1557,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>2.2</v>
+        <v>1.92</v>
       </c>
       <c r="AK5">
         <v>980</v>
@@ -1569,7 +1569,7 @@
         <v>980</v>
       </c>
       <c r="AN5">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AO5">
         <v>1000</v>
@@ -1581,13 +1581,13 @@
         <v>1000</v>
       </c>
       <c r="AR5">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="AS5">
         <v>1000</v>
       </c>
       <c r="AT5">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="AU5">
         <v>1000</v>
@@ -1599,7 +1599,7 @@
         <v>1000</v>
       </c>
       <c r="AX5">
-        <v>8</v>
+        <v>1.29</v>
       </c>
       <c r="AY5">
         <v>1000</v>
@@ -1617,7 +1617,7 @@
         <v>1000</v>
       </c>
       <c r="BD5">
-        <v>1.17</v>
+        <v>1.92</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -1664,79 +1664,79 @@
         <v>91</v>
       </c>
       <c r="F6">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="G6">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I6">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="J6">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K6">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L6">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M6">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="N6">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="O6">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="P6">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="Q6">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="R6">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="S6">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="T6">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="U6">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="V6">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="W6">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="X6">
-        <v>21</v>
+        <v>5.8</v>
       </c>
       <c r="Y6">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="Z6">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AA6">
         <v>980</v>
       </c>
       <c r="AB6">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AC6">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD6">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE6">
         <v>8.199999999999999</v>
@@ -1745,34 +1745,34 @@
         <v>15.5</v>
       </c>
       <c r="AG6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AH6">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AI6">
         <v>980</v>
       </c>
       <c r="AJ6">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AK6">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL6">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM6">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN6">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO6">
         <v>32</v>
       </c>
       <c r="AP6">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AQ6">
         <v>980</v>
@@ -1781,22 +1781,22 @@
         <v>21</v>
       </c>
       <c r="AS6">
+        <v>34</v>
+      </c>
+      <c r="AT6">
+        <v>5.8</v>
+      </c>
+      <c r="AU6">
         <v>36</v>
       </c>
-      <c r="AT6">
-        <v>22</v>
-      </c>
-      <c r="AU6">
-        <v>980</v>
-      </c>
       <c r="AV6">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AW6">
         <v>980</v>
       </c>
       <c r="AX6">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AY6">
         <v>980</v>
@@ -1805,16 +1805,16 @@
         <v>5</v>
       </c>
       <c r="BA6">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="BB6">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="BC6">
         <v>980</v>
       </c>
       <c r="BD6">
-        <v>5.8</v>
+        <v>15</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -1864,19 +1864,19 @@
         <v>1.55</v>
       </c>
       <c r="G7">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H7">
         <v>7</v>
       </c>
       <c r="I7">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J7">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K7">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L7">
         <v>1.73</v>
@@ -1900,34 +1900,34 @@
         <v>1.65</v>
       </c>
       <c r="S7">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
         <v>8.800000000000001</v>
       </c>
       <c r="U7">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V7">
         <v>16.5</v>
       </c>
       <c r="W7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X7">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="Y7">
         <v>980</v>
       </c>
       <c r="Z7">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AA7">
         <v>980</v>
       </c>
       <c r="AB7">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AC7">
         <v>8.199999999999999</v>
@@ -1936,22 +1936,22 @@
         <v>8</v>
       </c>
       <c r="AE7">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF7">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AG7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH7">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AI7">
         <v>980</v>
       </c>
       <c r="AJ7">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AK7">
         <v>9.800000000000001</v>
@@ -1963,13 +1963,13 @@
         <v>13</v>
       </c>
       <c r="AN7">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AO7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AP7">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AQ7">
         <v>980</v>
@@ -1987,31 +1987,31 @@
         <v>23</v>
       </c>
       <c r="AV7">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AW7">
         <v>980</v>
       </c>
       <c r="AX7">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AY7">
         <v>980</v>
       </c>
       <c r="AZ7">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="BA7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB7">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="BC7">
         <v>980</v>
       </c>
       <c r="BD7">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2061,7 +2061,7 @@
         <v>2.06</v>
       </c>
       <c r="G8">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H8">
         <v>4.4</v>
@@ -2070,7 +2070,7 @@
         <v>4.9</v>
       </c>
       <c r="J8">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K8">
         <v>3.2</v>
@@ -2100,115 +2100,115 @@
         <v>1.77</v>
       </c>
       <c r="T8">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="U8">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="V8">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="W8">
         <v>13</v>
       </c>
       <c r="X8">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="Y8">
         <v>36</v>
       </c>
       <c r="Z8">
+        <v>7.4</v>
+      </c>
+      <c r="AA8">
+        <v>980</v>
+      </c>
+      <c r="AB8">
+        <v>5.7</v>
+      </c>
+      <c r="AC8">
         <v>6.8</v>
       </c>
-      <c r="AA8">
-        <v>980</v>
-      </c>
-      <c r="AB8">
-        <v>5.5</v>
-      </c>
-      <c r="AC8">
-        <v>7.2</v>
-      </c>
       <c r="AD8">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE8">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AF8">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG8">
         <v>23</v>
       </c>
       <c r="AH8">
+        <v>7.2</v>
+      </c>
+      <c r="AI8">
+        <v>980</v>
+      </c>
+      <c r="AJ8">
+        <v>9</v>
+      </c>
+      <c r="AK8">
+        <v>12.5</v>
+      </c>
+      <c r="AL8">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AM8">
+        <v>13.5</v>
+      </c>
+      <c r="AN8">
         <v>6.6</v>
-      </c>
-      <c r="AI8">
-        <v>980</v>
-      </c>
-      <c r="AJ8">
-        <v>9.4</v>
-      </c>
-      <c r="AK8">
-        <v>12</v>
-      </c>
-      <c r="AL8">
-        <v>10</v>
-      </c>
-      <c r="AM8">
-        <v>13</v>
-      </c>
-      <c r="AN8">
-        <v>6.4</v>
       </c>
       <c r="AO8">
         <v>30</v>
       </c>
       <c r="AP8">
+        <v>7.4</v>
+      </c>
+      <c r="AQ8">
+        <v>980</v>
+      </c>
+      <c r="AR8">
+        <v>6.6</v>
+      </c>
+      <c r="AS8">
+        <v>30</v>
+      </c>
+      <c r="AT8">
         <v>6.8</v>
-      </c>
-      <c r="AQ8">
-        <v>980</v>
-      </c>
-      <c r="AR8">
-        <v>6.2</v>
-      </c>
-      <c r="AS8">
-        <v>29</v>
-      </c>
-      <c r="AT8">
-        <v>6.4</v>
       </c>
       <c r="AU8">
         <v>34</v>
       </c>
       <c r="AV8">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AW8">
         <v>980</v>
       </c>
       <c r="AX8">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AY8">
         <v>980</v>
       </c>
       <c r="AZ8">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="BA8">
         <v>32</v>
       </c>
       <c r="BB8">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="BC8">
         <v>980</v>
       </c>
       <c r="BD8">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="BE8">
         <v>1000</v>
@@ -2255,157 +2255,157 @@
         <v>94</v>
       </c>
       <c r="F9">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G9">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="H9">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I9">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J9">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L9">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M9">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="N9">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="O9">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="P9">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q9">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="T9">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="U9">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="V9">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="W9">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="X9">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z9">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="AA9">
         <v>980</v>
       </c>
       <c r="AB9">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC9">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD9">
         <v>6.4</v>
       </c>
       <c r="AE9">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AF9">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AG9">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AH9">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="AI9">
         <v>980</v>
       </c>
       <c r="AJ9">
-        <v>12</v>
+        <v>4.9</v>
       </c>
       <c r="AK9">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AL9">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AM9">
         <v>15.5</v>
       </c>
       <c r="AN9">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="AO9">
         <v>29</v>
       </c>
       <c r="AP9">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="AQ9">
         <v>980</v>
       </c>
       <c r="AR9">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="AS9">
         <v>980</v>
       </c>
       <c r="AT9">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="AU9">
         <v>980</v>
       </c>
       <c r="AV9">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="AW9">
         <v>980</v>
       </c>
       <c r="AX9">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="AY9">
         <v>980</v>
       </c>
       <c r="AZ9">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="BA9">
         <v>980</v>
       </c>
       <c r="BB9">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="BC9">
         <v>980</v>
       </c>
       <c r="BD9">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="BE9">
         <v>1000</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-27.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-27.xlsx
@@ -876,19 +876,19 @@
         <v>87</v>
       </c>
       <c r="F2">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H2">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="I2">
-        <v>870</v>
+        <v>5.8</v>
       </c>
       <c r="J2">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K2">
         <v>5.5</v>
@@ -1073,13 +1073,13 @@
         <v>88</v>
       </c>
       <c r="F3">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G3">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="I3">
         <v>3.4</v>
@@ -1091,13 +1091,13 @@
         <v>3.7</v>
       </c>
       <c r="L3">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="M3">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="O3">
         <v>4.6</v>
@@ -1115,7 +1115,7 @@
         <v>1000</v>
       </c>
       <c r="T3">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U3">
         <v>980</v>
@@ -1273,10 +1273,10 @@
         <v>1.74</v>
       </c>
       <c r="G4">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="I4">
         <v>5.7</v>
@@ -1300,22 +1300,22 @@
         <v>2.08</v>
       </c>
       <c r="P4">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q4">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="R4">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S4">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T4">
         <v>12.5</v>
       </c>
       <c r="U4">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="V4">
         <v>16</v>
@@ -1324,16 +1324,16 @@
         <v>22</v>
       </c>
       <c r="X4">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="Y4">
         <v>44</v>
       </c>
       <c r="Z4">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AA4">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AB4">
         <v>7.6</v>
@@ -1345,16 +1345,16 @@
         <v>8</v>
       </c>
       <c r="AE4">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF4">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AG4">
         <v>22</v>
       </c>
       <c r="AH4">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AI4">
         <v>85</v>
@@ -1369,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="AM4">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AN4">
         <v>18</v>
@@ -1378,16 +1378,16 @@
         <v>980</v>
       </c>
       <c r="AP4">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AQ4">
         <v>90</v>
       </c>
       <c r="AR4">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AS4">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AT4">
         <v>15.5</v>
@@ -1402,25 +1402,25 @@
         <v>980</v>
       </c>
       <c r="AX4">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AY4">
         <v>130</v>
       </c>
       <c r="AZ4">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BA4">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="BB4">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="BC4">
         <v>100</v>
       </c>
       <c r="BD4">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -1467,79 +1467,79 @@
         <v>90</v>
       </c>
       <c r="F5">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G5">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="H5">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I5">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J5">
+        <v>3.05</v>
+      </c>
+      <c r="K5">
+        <v>3.7</v>
+      </c>
+      <c r="L5">
+        <v>1.7</v>
+      </c>
+      <c r="M5">
+        <v>1.94</v>
+      </c>
+      <c r="N5">
+        <v>2.06</v>
+      </c>
+      <c r="O5">
+        <v>2.44</v>
+      </c>
+      <c r="P5">
+        <v>1.82</v>
+      </c>
+      <c r="Q5">
+        <v>2.12</v>
+      </c>
+      <c r="R5">
+        <v>1.9</v>
+      </c>
+      <c r="S5">
+        <v>2.22</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>980</v>
+      </c>
+      <c r="V5">
+        <v>2.52</v>
+      </c>
+      <c r="W5">
+        <v>980</v>
+      </c>
+      <c r="X5">
         <v>2.8</v>
       </c>
-      <c r="K5">
-        <v>3.65</v>
-      </c>
-      <c r="L5">
-        <v>1.58</v>
-      </c>
-      <c r="M5">
-        <v>1.8</v>
-      </c>
-      <c r="N5">
-        <v>1.88</v>
-      </c>
-      <c r="O5">
-        <v>4.2</v>
-      </c>
-      <c r="P5">
-        <v>1.92</v>
-      </c>
-      <c r="Q5">
-        <v>2.28</v>
-      </c>
-      <c r="R5">
-        <v>1.79</v>
-      </c>
-      <c r="S5">
-        <v>2.08</v>
-      </c>
-      <c r="T5">
-        <v>1.5</v>
-      </c>
-      <c r="U5">
-        <v>980</v>
-      </c>
-      <c r="V5">
-        <v>2.64</v>
-      </c>
-      <c r="W5">
-        <v>980</v>
-      </c>
-      <c r="X5">
-        <v>1.23</v>
-      </c>
       <c r="Y5">
         <v>980</v>
       </c>
       <c r="Z5">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <v>980</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="AC5">
         <v>980</v>
       </c>
       <c r="AD5">
-        <v>3.9</v>
+        <v>2.56</v>
       </c>
       <c r="AE5">
         <v>980</v>
@@ -1548,76 +1548,76 @@
         <v>5.4</v>
       </c>
       <c r="AG5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH5">
-        <v>6.2</v>
+        <v>2.96</v>
       </c>
       <c r="AI5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ5">
-        <v>1.92</v>
+        <v>3.15</v>
       </c>
       <c r="AK5">
         <v>980</v>
       </c>
       <c r="AL5">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="AM5">
         <v>980</v>
       </c>
       <c r="AN5">
-        <v>5.5</v>
+        <v>2.78</v>
       </c>
       <c r="AO5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP5">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="AQ5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR5">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="AS5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT5">
         <v>6.2</v>
       </c>
       <c r="AU5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV5">
-        <v>6.2</v>
+        <v>2.96</v>
       </c>
       <c r="AW5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX5">
-        <v>1.29</v>
+        <v>3.05</v>
       </c>
       <c r="AY5">
         <v>1000</v>
       </c>
       <c r="AZ5">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="BA5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB5">
-        <v>1.55</v>
+        <v>2.98</v>
       </c>
       <c r="BC5">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD5">
-        <v>1.92</v>
+        <v>3.15</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -1664,76 +1664,76 @@
         <v>91</v>
       </c>
       <c r="F6">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H6">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I6">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K6">
         <v>3.4</v>
       </c>
       <c r="L6">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M6">
         <v>1.69</v>
       </c>
       <c r="N6">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O6">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="P6">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q6">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="R6">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="S6">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="T6">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="U6">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V6">
         <v>10</v>
       </c>
       <c r="W6">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X6">
-        <v>5.8</v>
+        <v>22</v>
       </c>
       <c r="Y6">
         <v>980</v>
       </c>
       <c r="Z6">
+        <v>5.5</v>
+      </c>
+      <c r="AA6">
+        <v>980</v>
+      </c>
+      <c r="AB6">
         <v>5.7</v>
       </c>
-      <c r="AA6">
-        <v>980</v>
-      </c>
-      <c r="AB6">
-        <v>5.9</v>
-      </c>
       <c r="AC6">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD6">
         <v>6.2</v>
@@ -1742,22 +1742,22 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AF6">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG6">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AH6">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AI6">
         <v>980</v>
       </c>
       <c r="AJ6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK6">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL6">
         <v>9.199999999999999</v>
@@ -1766,55 +1766,55 @@
         <v>12.5</v>
       </c>
       <c r="AN6">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO6">
+        <v>980</v>
+      </c>
+      <c r="AP6">
+        <v>5.5</v>
+      </c>
+      <c r="AQ6">
+        <v>980</v>
+      </c>
+      <c r="AR6">
+        <v>18.5</v>
+      </c>
+      <c r="AS6">
         <v>32</v>
       </c>
-      <c r="AP6">
-        <v>5.6</v>
-      </c>
-      <c r="AQ6">
-        <v>980</v>
-      </c>
-      <c r="AR6">
-        <v>21</v>
-      </c>
-      <c r="AS6">
-        <v>34</v>
-      </c>
       <c r="AT6">
-        <v>5.8</v>
+        <v>20</v>
       </c>
       <c r="AU6">
         <v>36</v>
       </c>
       <c r="AV6">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AW6">
         <v>980</v>
       </c>
       <c r="AX6">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AY6">
         <v>980</v>
       </c>
       <c r="AZ6">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BA6">
         <v>32</v>
       </c>
       <c r="BB6">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="BC6">
         <v>980</v>
       </c>
       <c r="BD6">
-        <v>15</v>
+        <v>5.8</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -1870,10 +1870,10 @@
         <v>7</v>
       </c>
       <c r="I7">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K7">
         <v>4.3</v>
@@ -1954,7 +1954,7 @@
         <v>6.8</v>
       </c>
       <c r="AK7">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AL7">
         <v>9</v>
@@ -1993,13 +1993,13 @@
         <v>980</v>
       </c>
       <c r="AX7">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AY7">
         <v>980</v>
       </c>
       <c r="AZ7">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="BA7">
         <v>12</v>
@@ -2011,7 +2011,7 @@
         <v>980</v>
       </c>
       <c r="BD7">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2061,7 +2061,7 @@
         <v>2.06</v>
       </c>
       <c r="G8">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H8">
         <v>4.4</v>
@@ -2070,7 +2070,7 @@
         <v>4.9</v>
       </c>
       <c r="J8">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>3.2</v>
@@ -2112,22 +2112,22 @@
         <v>13</v>
       </c>
       <c r="X8">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Y8">
         <v>36</v>
       </c>
       <c r="Z8">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AA8">
         <v>980</v>
       </c>
       <c r="AB8">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AC8">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD8">
         <v>6.6</v>
@@ -2142,7 +2142,7 @@
         <v>23</v>
       </c>
       <c r="AH8">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AI8">
         <v>980</v>
@@ -2160,55 +2160,55 @@
         <v>13.5</v>
       </c>
       <c r="AN8">
-        <v>6.6</v>
+        <v>22</v>
       </c>
       <c r="AO8">
         <v>30</v>
       </c>
       <c r="AP8">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AQ8">
         <v>980</v>
       </c>
       <c r="AR8">
-        <v>6.6</v>
+        <v>22</v>
       </c>
       <c r="AS8">
         <v>30</v>
       </c>
       <c r="AT8">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AU8">
         <v>34</v>
       </c>
       <c r="AV8">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AW8">
         <v>980</v>
       </c>
       <c r="AX8">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AY8">
         <v>980</v>
       </c>
       <c r="AZ8">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BA8">
         <v>32</v>
       </c>
       <c r="BB8">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="BC8">
         <v>980</v>
       </c>
       <c r="BD8">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE8">
         <v>1000</v>
@@ -2264,7 +2264,7 @@
         <v>3.3</v>
       </c>
       <c r="I9">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -2363,19 +2363,19 @@
         <v>29</v>
       </c>
       <c r="AP9">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AQ9">
         <v>980</v>
       </c>
       <c r="AR9">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AS9">
         <v>980</v>
       </c>
       <c r="AT9">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AU9">
         <v>980</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-27.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-27.xlsx
@@ -1861,19 +1861,19 @@
         <v>92</v>
       </c>
       <c r="F7">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G7">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="J7">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K7">
         <v>4.3</v>
@@ -1882,136 +1882,136 @@
         <v>1.73</v>
       </c>
       <c r="M7">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="N7">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="O7">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="P7">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="R7">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="T7">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="V7">
         <v>16.5</v>
       </c>
       <c r="W7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X7">
-        <v>4.4</v>
+        <v>40</v>
       </c>
       <c r="Y7">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="Z7">
-        <v>4.6</v>
+        <v>15.5</v>
       </c>
       <c r="AA7">
         <v>980</v>
       </c>
       <c r="AB7">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AC7">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="AD7">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AE7">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AF7">
-        <v>4.4</v>
+        <v>28</v>
       </c>
       <c r="AG7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AH7">
-        <v>4.6</v>
+        <v>15</v>
       </c>
       <c r="AI7">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AJ7">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AK7">
+        <v>7.8</v>
+      </c>
+      <c r="AL7">
         <v>9.6</v>
       </c>
-      <c r="AL7">
-        <v>9</v>
-      </c>
       <c r="AM7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN7">
-        <v>4.4</v>
+        <v>27</v>
       </c>
       <c r="AO7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AP7">
-        <v>4.6</v>
+        <v>15</v>
       </c>
       <c r="AQ7">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AR7">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AS7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AT7">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AU7">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AV7">
-        <v>4.4</v>
+        <v>34</v>
       </c>
       <c r="AW7">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AX7">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="AY7">
-        <v>980</v>
+        <v>260</v>
       </c>
       <c r="AZ7">
-        <v>3.4</v>
+        <v>10.5</v>
       </c>
       <c r="BA7">
         <v>12</v>
       </c>
       <c r="BB7">
-        <v>4.6</v>
+        <v>16</v>
       </c>
       <c r="BC7">
-        <v>980</v>
+        <v>290</v>
       </c>
       <c r="BD7">
-        <v>4.8</v>
+        <v>16.5</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2058,157 +2058,157 @@
         <v>93</v>
       </c>
       <c r="F8">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G8">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="H8">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I8">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K8">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L8">
         <v>1.47</v>
       </c>
       <c r="M8">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="N8">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="O8">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q8">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R8">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S8">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="T8">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="U8">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="V8">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="W8">
         <v>13</v>
       </c>
       <c r="X8">
-        <v>6.6</v>
+        <v>30</v>
       </c>
       <c r="Y8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z8">
+        <v>16</v>
+      </c>
+      <c r="AA8">
+        <v>150</v>
+      </c>
+      <c r="AB8">
+        <v>5.8</v>
+      </c>
+      <c r="AC8">
+        <v>6.2</v>
+      </c>
+      <c r="AD8">
+        <v>7</v>
+      </c>
+      <c r="AE8">
         <v>7.6</v>
       </c>
-      <c r="AA8">
-        <v>980</v>
-      </c>
-      <c r="AB8">
-        <v>5.9</v>
-      </c>
-      <c r="AC8">
-        <v>6.6</v>
-      </c>
-      <c r="AD8">
-        <v>6.6</v>
-      </c>
-      <c r="AE8">
-        <v>7.8</v>
-      </c>
       <c r="AF8">
+        <v>20</v>
+      </c>
+      <c r="AG8">
+        <v>22</v>
+      </c>
+      <c r="AH8">
         <v>17</v>
       </c>
-      <c r="AG8">
-        <v>23</v>
-      </c>
-      <c r="AH8">
-        <v>7.6</v>
-      </c>
       <c r="AI8">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AJ8">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AK8">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AL8">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AM8">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AN8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AO8">
         <v>30</v>
       </c>
       <c r="AP8">
-        <v>7.6</v>
+        <v>18.5</v>
       </c>
       <c r="AQ8">
-        <v>980</v>
+        <v>140</v>
       </c>
       <c r="AR8">
         <v>22</v>
       </c>
       <c r="AS8">
+        <v>25</v>
+      </c>
+      <c r="AT8">
+        <v>27</v>
+      </c>
+      <c r="AU8">
         <v>30</v>
       </c>
-      <c r="AT8">
-        <v>6.6</v>
-      </c>
-      <c r="AU8">
-        <v>34</v>
-      </c>
       <c r="AV8">
-        <v>7.4</v>
+        <v>14.5</v>
       </c>
       <c r="AW8">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AX8">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="AY8">
         <v>980</v>
       </c>
       <c r="AZ8">
-        <v>6.4</v>
+        <v>24</v>
       </c>
       <c r="BA8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="BB8">
-        <v>7.8</v>
+        <v>16.5</v>
       </c>
       <c r="BC8">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="BD8">
-        <v>8.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="BE8">
         <v>1000</v>
@@ -2255,157 +2255,157 @@
         <v>94</v>
       </c>
       <c r="F9">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="G9">
-        <v>2.66</v>
+        <v>2.4</v>
       </c>
       <c r="H9">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="I9">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K9">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L9">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M9">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="N9">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="O9">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="P9">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q9">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R9">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T9">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="U9">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="V9">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="W9">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="X9">
-        <v>5.4</v>
+        <v>22</v>
       </c>
       <c r="Y9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z9">
-        <v>6.2</v>
+        <v>13.5</v>
       </c>
       <c r="AA9">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AB9">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC9">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD9">
         <v>6.4</v>
       </c>
       <c r="AE9">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF9">
-        <v>5.1</v>
+        <v>15</v>
       </c>
       <c r="AG9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH9">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="AI9">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ9">
-        <v>4.9</v>
+        <v>11.5</v>
       </c>
       <c r="AK9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AL9">
         <v>11</v>
       </c>
       <c r="AM9">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AN9">
-        <v>5.4</v>
+        <v>21</v>
       </c>
       <c r="AO9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP9">
-        <v>6.4</v>
+        <v>46</v>
       </c>
       <c r="AQ9">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AR9">
-        <v>5.8</v>
+        <v>28</v>
       </c>
       <c r="AS9">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AT9">
-        <v>5.7</v>
+        <v>28</v>
       </c>
       <c r="AU9">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AV9">
-        <v>6.2</v>
+        <v>50</v>
       </c>
       <c r="AW9">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AX9">
-        <v>6.4</v>
+        <v>14</v>
       </c>
       <c r="AY9">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AZ9">
-        <v>5.8</v>
+        <v>25</v>
       </c>
       <c r="BA9">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="BB9">
-        <v>6.2</v>
+        <v>16</v>
       </c>
       <c r="BC9">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD9">
-        <v>6.6</v>
+        <v>15</v>
       </c>
       <c r="BE9">
         <v>1000</v>
